--- a/TradingModel_TradingHistory.xlsx
+++ b/TradingModel_TradingHistory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="42" documentId="14_{56EAB913-C164-4335-964C-5F4DF92B0329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5AF4500E-A645-4499-923C-1F0FD5FA129F}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="14_{56EAB913-C164-4335-964C-5F4DF92B0329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B9D3DF66-60AD-4B23-8BD1-7B300B5B47D8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15024" windowHeight="6408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,6 +63,14 @@
   </si>
   <si>
     <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositionSize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,15 +401,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -413,16 +418,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -433,7 +438,7 @@
         <v>3141</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>27</v>
@@ -450,7 +455,7 @@
         <v>4739</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -467,7 +472,7 @@
         <v>6170</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>117</v>
@@ -484,7 +489,7 @@
         <v>3189</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>27</v>
@@ -501,7 +506,7 @@
         <v>6509</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>91</v>
@@ -518,7 +523,7 @@
         <v>8155</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>42</v>
@@ -535,7 +540,7 @@
         <v>1711</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>220</v>
@@ -552,7 +557,7 @@
         <v>3035</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>32</v>
@@ -569,7 +574,7 @@
         <v>8155</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>-42</v>
@@ -586,7 +591,7 @@
         <v>6509</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>-91</v>
@@ -603,7 +608,7 @@
         <v>3504</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>43</v>
@@ -620,7 +625,7 @@
         <v>6411</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>26</v>
@@ -637,7 +642,7 @@
         <v>4739</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>-40</v>
@@ -654,13 +659,30 @@
         <v>3033</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>180</v>
       </c>
       <c r="E15">
         <v>32.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>44511</v>
+      </c>
+      <c r="B16">
+        <v>6170</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>-117</v>
+      </c>
+      <c r="E16">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -680,6 +702,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068154D9CED6A274799344D73CDDB6092" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5a2665e4f307efafdee1c9405c7148c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0" xmlns:ns4="a05e4abd-8455-4909-9372-067b8b6e3dbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb69d6d218e7dc1efa9607e3a9562cb6" ns3:_="" ns4:_="">
     <xsd:import namespace="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
@@ -888,12 +916,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{221697E4-0A9A-4EB7-A5B6-3B1DEB0CFCF8}">
   <ds:schemaRefs>
@@ -903,6 +925,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6FFE15-E716-4243-8E1D-48EB52DD2344}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
+    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57952537-1533-4CDE-AFAB-2D85DDCD6DD3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -919,21 +958,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6FFE15-E716-4243-8E1D-48EB52DD2344}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TradingModel_TradingHistory.xlsx
+++ b/TradingModel_TradingHistory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="51" documentId="14_{56EAB913-C164-4335-964C-5F4DF92B0329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B9D3DF66-60AD-4B23-8BD1-7B300B5B47D8}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="14_{56EAB913-C164-4335-964C-5F4DF92B0329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{233CEDCC-D9BD-4A2A-A856-6713626E4A69}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15024" windowHeight="6408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>PositionSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lomg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -685,6 +697,74 @@
         <v>47</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B17">
+        <v>3588</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B18">
+        <v>3504</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>-43</v>
+      </c>
+      <c r="E18">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B19">
+        <v>6104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B20">
+        <v>2436</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>99.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -693,21 +773,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068154D9CED6A274799344D73CDDB6092" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5a2665e4f307efafdee1c9405c7148c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0" xmlns:ns4="a05e4abd-8455-4909-9372-067b8b6e3dbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb69d6d218e7dc1efa9607e3a9562cb6" ns3:_="" ns4:_="">
     <xsd:import namespace="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
@@ -916,32 +981,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{221697E4-0A9A-4EB7-A5B6-3B1DEB0CFCF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6FFE15-E716-4243-8E1D-48EB52DD2344}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
-    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57952537-1533-4CDE-AFAB-2D85DDCD6DD3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -958,4 +1013,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6FFE15-E716-4243-8E1D-48EB52DD2344}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{221697E4-0A9A-4EB7-A5B6-3B1DEB0CFCF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TradingModel_TradingHistory.xlsx
+++ b/TradingModel_TradingHistory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="51" documentId="14_{56EAB913-C164-4335-964C-5F4DF92B0329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B9D3DF66-60AD-4B23-8BD1-7B300B5B47D8}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="14_{56EAB913-C164-4335-964C-5F4DF92B0329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{12266158-A1B5-42D7-A327-D71BF783EFF7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15024" windowHeight="6408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>PositionSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lomg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -685,6 +697,74 @@
         <v>47</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B17">
+        <v>3588</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B18">
+        <v>3504</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>-43</v>
+      </c>
+      <c r="E18">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B19">
+        <v>6104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B20">
+        <v>2436</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>99.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -693,21 +773,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068154D9CED6A274799344D73CDDB6092" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5a2665e4f307efafdee1c9405c7148c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0" xmlns:ns4="a05e4abd-8455-4909-9372-067b8b6e3dbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb69d6d218e7dc1efa9607e3a9562cb6" ns3:_="" ns4:_="">
     <xsd:import namespace="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
@@ -916,32 +981,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{221697E4-0A9A-4EB7-A5B6-3B1DEB0CFCF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6FFE15-E716-4243-8E1D-48EB52DD2344}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
-    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57952537-1533-4CDE-AFAB-2D85DDCD6DD3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -958,4 +1013,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6FFE15-E716-4243-8E1D-48EB52DD2344}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{221697E4-0A9A-4EB7-A5B6-3B1DEB0CFCF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TradingModel_TradingHistory.xlsx
+++ b/TradingModel_TradingHistory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="115" documentId="14_{56EAB913-C164-4335-964C-5F4DF92B0329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{12266158-A1B5-42D7-A327-D71BF783EFF7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{CBCE075E-5EE2-498E-B0FB-F73245713C99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15024" windowHeight="6408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>lomg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -763,6 +771,142 @@
       </c>
       <c r="E20">
         <v>99.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B21">
+        <v>1711</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>-220</v>
+      </c>
+      <c r="E21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B22">
+        <v>3122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B23">
+        <v>3033</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>-180</v>
+      </c>
+      <c r="E23">
+        <v>31.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B24">
+        <v>6138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B25">
+        <v>2436</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B26">
+        <v>3122</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B27">
+        <v>3189</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>-27</v>
+      </c>
+      <c r="E27">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B28">
+        <v>6271</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>302.5</v>
       </c>
     </row>
   </sheetData>
@@ -1018,16 +1162,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6FFE15-E716-4243-8E1D-48EB52DD2344}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
     <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TradingModel_TradingHistory.xlsx
+++ b/TradingModel_TradingHistory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{CBCE075E-5EE2-498E-B0FB-F73245713C99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="14_{CBCE075E-5EE2-498E-B0FB-F73245713C99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E15FEC7B-E621-49A3-8DAB-D1E99AC92BD5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15024" windowHeight="6408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,14 @@
   </si>
   <si>
     <t>short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -907,6 +915,57 @@
       </c>
       <c r="E28">
         <v>302.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>44516</v>
+      </c>
+      <c r="B29">
+        <v>8289</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>160</v>
+      </c>
+      <c r="E29">
+        <v>36.85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>44516</v>
+      </c>
+      <c r="B30">
+        <v>2314</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>65</v>
+      </c>
+      <c r="E30">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>44516</v>
+      </c>
+      <c r="B31">
+        <v>3221</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>61</v>
+      </c>
+      <c r="E31">
+        <v>42.6</v>
       </c>
     </row>
   </sheetData>
@@ -1162,16 +1221,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6FFE15-E716-4243-8E1D-48EB52DD2344}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
-    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TradingModel_TradingHistory.xlsx
+++ b/TradingModel_TradingHistory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="16" documentId="14_{CBCE075E-5EE2-498E-B0FB-F73245713C99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E15FEC7B-E621-49A3-8DAB-D1E99AC92BD5}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="14_{CBCE075E-5EE2-498E-B0FB-F73245713C99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5292DC96-91B5-4F80-8B89-23D1CDC18C5C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15024" windowHeight="6408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,14 @@
   </si>
   <si>
     <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -966,6 +974,91 @@
       </c>
       <c r="E31">
         <v>42.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>44517</v>
+      </c>
+      <c r="B32">
+        <v>6196</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>35</v>
+      </c>
+      <c r="E32">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>44517</v>
+      </c>
+      <c r="B33">
+        <v>2314</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>-65</v>
+      </c>
+      <c r="E33">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>44517</v>
+      </c>
+      <c r="B34">
+        <v>8289</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>-160</v>
+      </c>
+      <c r="E34">
+        <v>36.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>44517</v>
+      </c>
+      <c r="B35">
+        <v>6282</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>155</v>
+      </c>
+      <c r="E35">
+        <v>38.450000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>44517</v>
+      </c>
+      <c r="B36">
+        <v>6271</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>-20</v>
+      </c>
+      <c r="E36">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -1221,16 +1314,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6FFE15-E716-4243-8E1D-48EB52DD2344}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TradingModel_TradingHistory.xlsx
+++ b/TradingModel_TradingHistory.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="42" documentId="14_{CBCE075E-5EE2-498E-B0FB-F73245713C99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5292DC96-91B5-4F80-8B89-23D1CDC18C5C}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="14_{CBCE075E-5EE2-498E-B0FB-F73245713C99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{61FA39D9-D5F7-4314-8375-63C4823F5F63}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15024" windowHeight="6408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1061,6 +1069,227 @@
         <v>297</v>
       </c>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B37">
+        <v>3122</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37">
+        <v>-90</v>
+      </c>
+      <c r="E37">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B38">
+        <v>3221</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38">
+        <v>-61</v>
+      </c>
+      <c r="E38">
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B39">
+        <v>6282</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>-155</v>
+      </c>
+      <c r="E39">
+        <v>35.950000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B40">
+        <v>6196</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>-35</v>
+      </c>
+      <c r="E40">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B41">
+        <v>3035</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>-32</v>
+      </c>
+      <c r="E41">
+        <v>198.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B42">
+        <v>6411</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>-26</v>
+      </c>
+      <c r="E42">
+        <v>272.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B43">
+        <v>3141</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>-27</v>
+      </c>
+      <c r="E43">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B44">
+        <v>2484</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <v>137</v>
+      </c>
+      <c r="E44">
+        <v>43.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B45">
+        <v>5351</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>63</v>
+      </c>
+      <c r="E45">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B46">
+        <v>3016</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>42</v>
+      </c>
+      <c r="E46">
+        <v>140.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B47">
+        <v>8069</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>51</v>
+      </c>
+      <c r="E47">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B48">
+        <v>8289</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>150</v>
+      </c>
+      <c r="E48">
+        <v>38.35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B49">
+        <v>2340</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49">
+        <v>115</v>
+      </c>
+      <c r="E49">
+        <v>51.6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1069,6 +1298,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068154D9CED6A274799344D73CDDB6092" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5a2665e4f307efafdee1c9405c7148c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0" xmlns:ns4="a05e4abd-8455-4909-9372-067b8b6e3dbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb69d6d218e7dc1efa9607e3a9562cb6" ns3:_="" ns4:_="">
     <xsd:import namespace="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
@@ -1277,22 +1521,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{221697E4-0A9A-4EB7-A5B6-3B1DEB0CFCF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6FFE15-E716-4243-8E1D-48EB52DD2344}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
+    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57952537-1533-4CDE-AFAB-2D85DDCD6DD3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1309,29 +1563,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6FFE15-E716-4243-8E1D-48EB52DD2344}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{221697E4-0A9A-4EB7-A5B6-3B1DEB0CFCF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TradingModel_TradingHistory.xlsx
+++ b/TradingModel_TradingHistory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="48" documentId="14_{CBCE075E-5EE2-498E-B0FB-F73245713C99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{61FA39D9-D5F7-4314-8375-63C4823F5F63}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="14_{CBCE075E-5EE2-498E-B0FB-F73245713C99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{51541E81-A0AA-4ECD-8499-A62F5C5B11AF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15024" windowHeight="6408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,14 @@
   </si>
   <si>
     <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1290,6 +1298,40 @@
         <v>51.6</v>
       </c>
     </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>44523</v>
+      </c>
+      <c r="B50">
+        <v>1712</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>215</v>
+      </c>
+      <c r="E50">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>44523</v>
+      </c>
+      <c r="B51">
+        <v>2436</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51">
+        <v>-60</v>
+      </c>
+      <c r="E51">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1298,21 +1340,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068154D9CED6A274799344D73CDDB6092" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5a2665e4f307efafdee1c9405c7148c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0" xmlns:ns4="a05e4abd-8455-4909-9372-067b8b6e3dbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb69d6d218e7dc1efa9607e3a9562cb6" ns3:_="" ns4:_="">
     <xsd:import namespace="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
@@ -1521,32 +1548,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{221697E4-0A9A-4EB7-A5B6-3B1DEB0CFCF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6FFE15-E716-4243-8E1D-48EB52DD2344}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
-    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57952537-1533-4CDE-AFAB-2D85DDCD6DD3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1563,4 +1580,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6FFE15-E716-4243-8E1D-48EB52DD2344}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{221697E4-0A9A-4EB7-A5B6-3B1DEB0CFCF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TradingModel_TradingHistory.xlsx
+++ b/TradingModel_TradingHistory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="58" documentId="14_{CBCE075E-5EE2-498E-B0FB-F73245713C99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{51541E81-A0AA-4ECD-8499-A62F5C5B11AF}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="14_{CBCE075E-5EE2-498E-B0FB-F73245713C99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D1D4E447-E711-479C-9B12-7FAA02BFCB3F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15024" windowHeight="6408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,14 @@
   </si>
   <si>
     <t>short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8289_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -945,8 +953,8 @@
       <c r="A29" s="2">
         <v>44516</v>
       </c>
-      <c r="B29">
-        <v>8289</v>
+      <c r="B29" t="s">
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -1030,8 +1038,8 @@
       <c r="A34" s="2">
         <v>44517</v>
       </c>
-      <c r="B34">
-        <v>8289</v>
+      <c r="B34" t="s">
+        <v>27</v>
       </c>
       <c r="C34" t="s">
         <v>21</v>
@@ -1330,6 +1338,414 @@
       </c>
       <c r="E51">
         <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B52">
+        <v>3532</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B53">
+        <v>6167</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>200</v>
+      </c>
+      <c r="E53">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B54">
+        <v>3444</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>43</v>
+      </c>
+      <c r="E54">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B55">
+        <v>3046</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>75</v>
+      </c>
+      <c r="E55">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B56">
+        <v>3653</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B57">
+        <v>6182</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>37</v>
+      </c>
+      <c r="E57">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B58">
+        <v>6457</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>13</v>
+      </c>
+      <c r="E58">
+        <v>226.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B59">
+        <v>3037</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>211.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B60">
+        <v>3169</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>264.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B61">
+        <v>3672</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>77</v>
+      </c>
+      <c r="E61">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B62">
+        <v>2374</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>125</v>
+      </c>
+      <c r="E62">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B63">
+        <v>6265</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>170</v>
+      </c>
+      <c r="E63">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B64">
+        <v>2383</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>11</v>
+      </c>
+      <c r="E64">
+        <v>265.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B65">
+        <v>3551</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>78</v>
+      </c>
+      <c r="E65">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B66">
+        <v>2340</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66">
+        <v>-57</v>
+      </c>
+      <c r="E66">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B67">
+        <v>6104</v>
+      </c>
+      <c r="C67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67">
+        <v>-18</v>
+      </c>
+      <c r="E67">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B68">
+        <v>6138</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68">
+        <v>-15</v>
+      </c>
+      <c r="E68">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B69">
+        <v>3016</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69">
+        <v>-21</v>
+      </c>
+      <c r="E69">
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B70">
+        <v>8069</v>
+      </c>
+      <c r="C70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70">
+        <v>-25</v>
+      </c>
+      <c r="E70">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B71">
+        <v>8289</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71">
+        <v>-75</v>
+      </c>
+      <c r="E71">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B72">
+        <v>1712</v>
+      </c>
+      <c r="C72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72">
+        <v>-107</v>
+      </c>
+      <c r="E72">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B73">
+        <v>3588</v>
+      </c>
+      <c r="C73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73">
+        <v>-35</v>
+      </c>
+      <c r="E73">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B74">
+        <v>5351</v>
+      </c>
+      <c r="C74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74">
+        <v>-63</v>
+      </c>
+      <c r="E74">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B75">
+        <v>2484</v>
+      </c>
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75">
+        <v>-137</v>
+      </c>
+      <c r="E75">
+        <v>41.1</v>
       </c>
     </row>
   </sheetData>
@@ -1340,6 +1756,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068154D9CED6A274799344D73CDDB6092" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5a2665e4f307efafdee1c9405c7148c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0" xmlns:ns4="a05e4abd-8455-4909-9372-067b8b6e3dbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb69d6d218e7dc1efa9607e3a9562cb6" ns3:_="" ns4:_="">
     <xsd:import namespace="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
@@ -1548,22 +1979,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{221697E4-0A9A-4EB7-A5B6-3B1DEB0CFCF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6FFE15-E716-4243-8E1D-48EB52DD2344}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57952537-1533-4CDE-AFAB-2D85DDCD6DD3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1580,29 +2021,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6FFE15-E716-4243-8E1D-48EB52DD2344}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{221697E4-0A9A-4EB7-A5B6-3B1DEB0CFCF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>